--- a/Data/cheese-database.xlsx
+++ b/Data/cheese-database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cheese-classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cheese-classification\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,9 +179,6 @@
     <t>Aroma</t>
   </si>
   <si>
-    <t>Common useage</t>
-  </si>
-  <si>
     <t>Gouda</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Manchego</t>
+  </si>
+  <si>
+    <t>Common Usage</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -733,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -762,13 +762,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -782,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -800,7 +800,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -814,25 +814,25 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -846,13 +846,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -878,13 +878,13 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -925,10 +925,10 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -977,13 +977,13 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -992,7 +992,7 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -1021,10 +1021,10 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1038,13 +1038,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -1053,10 +1053,10 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1085,10 +1085,10 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1102,25 +1102,25 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1134,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -1149,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1169,22 +1169,22 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s">
         <v>54</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1198,16 +1198,16 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1230,16 +1230,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -1248,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1268,19 +1268,19 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1326,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -1341,10 +1341,10 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1373,10 +1373,10 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1393,10 +1393,10 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1408,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1434,13 +1434,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1454,10 +1454,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1472,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1501,10 +1501,10 @@
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1518,10 +1518,10 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1533,10 +1533,10 @@
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
         <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1591,7 +1591,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -1600,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1614,25 +1614,25 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
